--- a/kvision/ksample/mytable/result/009_4db76.xlsx
+++ b/kvision/ksample/mytable/result/009_4db76.xlsx
@@ -35,13 +35,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -50,9 +64,12 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -437,245 +454,245 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>项目名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>参考范围</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>项目名称</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>总蛋白</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>62-82</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>白蛋白</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>35-55</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>谷丙转氨酶</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>0-40</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>谷草转氨酶</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>0-40</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>r-谷氨酰转移酶</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>8-40</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>总胆红素</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>18.0</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>umo1/L</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>0-17</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>直接胆红素</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>umo1/L</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>0-6</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>碱性磷酸酶</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>42-140</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr"/>
-      <c r="D10" s="1" t="inlineStr"/>
-      <c r="E10" s="1" t="inlineStr"/>
+      <c r="A10" s="2" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>乳酸脱氢酶</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>115-220</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kvision/ksample/mytable/result/009_4db76.xlsx
+++ b/kvision/ksample/mytable/result/009_4db76.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,20 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -64,12 +78,15 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -454,245 +471,245 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>项目名称</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>参考范围</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>项目名称</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>总蛋白</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>62-82</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>白蛋白</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>35-55</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>谷丙转氨酶</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>0-40</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>谷草转氨酶</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>0-40</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>r-谷氨酰转移酶</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>8-40</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>总胆红素</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>18.0</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>umo1/L</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>0-17</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>直接胆红素</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>umo1/L</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>0-6</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>碱性磷酸酶</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>42-140</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr"/>
-      <c r="B10" s="2" t="inlineStr"/>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
+      <c r="A10" s="3" t="inlineStr"/>
+      <c r="B10" s="3" t="inlineStr"/>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>乳酸脱氢酶</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>115-220</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kvision/ksample/mytable/result/009_4db76.xlsx
+++ b/kvision/ksample/mytable/result/009_4db76.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,6 +71,20 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -78,7 +92,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -87,6 +101,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -471,245 +488,245 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>项目名称</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>参考范围</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>项目名称</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>总蛋白</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>62-82</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>白蛋白</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>g/L</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>35-55</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>谷丙转氨酶</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>0-40</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>谷草转氨酶</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>0-40</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>r-谷氨酰转移酶</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>8-40</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>总胆红素</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>18.0</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>umo1/L</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>0-17</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>直接胆红素</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>umo1/L</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>0-6</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>碱性磷酸酶</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>42-140</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr"/>
-      <c r="B10" s="3" t="inlineStr"/>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr"/>
+      <c r="A10" s="4" t="inlineStr"/>
+      <c r="B10" s="4" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr"/>
+      <c r="E10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>乳酸脱氢酶</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>U/L</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>115-220</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
